--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/covariates/GroupName1_covariates.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/covariates/GroupName1_covariates.xlsx
@@ -13,159 +13,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>sub_1</t>
-  </si>
-  <si>
-    <t>sub_2</t>
-  </si>
-  <si>
-    <t>sub_3</t>
-  </si>
-  <si>
-    <t>sub_4</t>
-  </si>
-  <si>
-    <t>sub_5</t>
-  </si>
-  <si>
-    <t>sub_6</t>
-  </si>
-  <si>
-    <t>sub_7</t>
-  </si>
-  <si>
-    <t>sub_8</t>
-  </si>
-  <si>
-    <t>sub_9</t>
-  </si>
-  <si>
-    <t>sub_10</t>
-  </si>
-  <si>
-    <t>sub_11</t>
-  </si>
-  <si>
-    <t>sub_12</t>
-  </si>
-  <si>
-    <t>sub_13</t>
-  </si>
-  <si>
-    <t>sub_14</t>
-  </si>
-  <si>
-    <t>sub_15</t>
-  </si>
-  <si>
-    <t>sub_16</t>
-  </si>
-  <si>
-    <t>sub_17</t>
-  </si>
-  <si>
-    <t>sub_18</t>
-  </si>
-  <si>
-    <t>sub_19</t>
-  </si>
-  <si>
-    <t>sub_20</t>
-  </si>
-  <si>
-    <t>sub_21</t>
-  </si>
-  <si>
-    <t>sub_22</t>
-  </si>
-  <si>
-    <t>sub_23</t>
-  </si>
-  <si>
-    <t>sub_24</t>
-  </si>
-  <si>
-    <t>sub_25</t>
-  </si>
-  <si>
-    <t>sub_26</t>
-  </si>
-  <si>
-    <t>sub_27</t>
-  </si>
-  <si>
-    <t>sub_28</t>
-  </si>
-  <si>
-    <t>sub_29</t>
-  </si>
-  <si>
-    <t>sub_30</t>
-  </si>
-  <si>
-    <t>sub_31</t>
-  </si>
-  <si>
-    <t>sub_32</t>
-  </si>
-  <si>
-    <t>sub_33</t>
-  </si>
-  <si>
-    <t>sub_34</t>
-  </si>
-  <si>
-    <t>sub_35</t>
-  </si>
-  <si>
-    <t>sub_36</t>
-  </si>
-  <si>
-    <t>sub_37</t>
-  </si>
-  <si>
-    <t>sub_38</t>
-  </si>
-  <si>
-    <t>sub_39</t>
-  </si>
-  <si>
-    <t>sub_40</t>
-  </si>
-  <si>
-    <t>sub_41</t>
-  </si>
-  <si>
-    <t>sub_42</t>
-  </si>
-  <si>
-    <t>sub_43</t>
-  </si>
-  <si>
-    <t>sub_44</t>
-  </si>
-  <si>
-    <t>sub_45</t>
-  </si>
-  <si>
-    <t>sub_46</t>
-  </si>
-  <si>
-    <t>sub_47</t>
-  </si>
-  <si>
-    <t>sub_48</t>
-  </si>
-  <si>
-    <t>sub_49</t>
-  </si>
-  <si>
-    <t>sub_50</t>
+    <t>subject1</t>
+  </si>
+  <si>
+    <t>subject2</t>
+  </si>
+  <si>
+    <t>subject3</t>
+  </si>
+  <si>
+    <t>subject4</t>
+  </si>
+  <si>
+    <t>subject5</t>
+  </si>
+  <si>
+    <t>subject6</t>
+  </si>
+  <si>
+    <t>subject7</t>
+  </si>
+  <si>
+    <t>subject8</t>
+  </si>
+  <si>
+    <t>subject9</t>
+  </si>
+  <si>
+    <t>subject10</t>
+  </si>
+  <si>
+    <t>subject11</t>
+  </si>
+  <si>
+    <t>subject12</t>
+  </si>
+  <si>
+    <t>subject13</t>
+  </si>
+  <si>
+    <t>subject14</t>
+  </si>
+  <si>
+    <t>subject15</t>
+  </si>
+  <si>
+    <t>subject16</t>
+  </si>
+  <si>
+    <t>subject17</t>
+  </si>
+  <si>
+    <t>subject18</t>
+  </si>
+  <si>
+    <t>subject19</t>
+  </si>
+  <si>
+    <t>subject20</t>
+  </si>
+  <si>
+    <t>subject21</t>
+  </si>
+  <si>
+    <t>subject22</t>
+  </si>
+  <si>
+    <t>subject23</t>
+  </si>
+  <si>
+    <t>subject24</t>
+  </si>
+  <si>
+    <t>subject25</t>
+  </si>
+  <si>
+    <t>subject26</t>
+  </si>
+  <si>
+    <t>subject27</t>
+  </si>
+  <si>
+    <t>subject28</t>
+  </si>
+  <si>
+    <t>subject29</t>
+  </si>
+  <si>
+    <t>subject30</t>
+  </si>
+  <si>
+    <t>subject31</t>
+  </si>
+  <si>
+    <t>subject32</t>
+  </si>
+  <si>
+    <t>subject33</t>
+  </si>
+  <si>
+    <t>subject34</t>
+  </si>
+  <si>
+    <t>subject35</t>
+  </si>
+  <si>
+    <t>subject36</t>
+  </si>
+  <si>
+    <t>subject37</t>
+  </si>
+  <si>
+    <t>subject38</t>
+  </si>
+  <si>
+    <t>subject39</t>
+  </si>
+  <si>
+    <t>subject40</t>
+  </si>
+  <si>
+    <t>subject41</t>
+  </si>
+  <si>
+    <t>subject42</t>
+  </si>
+  <si>
+    <t>subject43</t>
+  </si>
+  <si>
+    <t>subject44</t>
+  </si>
+  <si>
+    <t>subject45</t>
+  </si>
+  <si>
+    <t>subject46</t>
+  </si>
+  <si>
+    <t>subject47</t>
+  </si>
+  <si>
+    <t>subject48</t>
+  </si>
+  <si>
+    <t>subject49</t>
+  </si>
+  <si>
+    <t>subject50</t>
   </si>
   <si>
     <t>age</t>
@@ -175,252 +175,6 @@
   </si>
   <si>
     <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>edu</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>subject1</t>
-  </si>
-  <si>
-    <t>subject2</t>
-  </si>
-  <si>
-    <t>subject3</t>
-  </si>
-  <si>
-    <t>subject4</t>
-  </si>
-  <si>
-    <t>subject5</t>
-  </si>
-  <si>
-    <t>subject6</t>
-  </si>
-  <si>
-    <t>subject7</t>
-  </si>
-  <si>
-    <t>subject8</t>
-  </si>
-  <si>
-    <t>subject9</t>
-  </si>
-  <si>
-    <t>subject10</t>
-  </si>
-  <si>
-    <t>subject11</t>
-  </si>
-  <si>
-    <t>subject12</t>
-  </si>
-  <si>
-    <t>subject13</t>
-  </si>
-  <si>
-    <t>subject14</t>
-  </si>
-  <si>
-    <t>subject15</t>
-  </si>
-  <si>
-    <t>subject16</t>
-  </si>
-  <si>
-    <t>subject17</t>
-  </si>
-  <si>
-    <t>subject18</t>
-  </si>
-  <si>
-    <t>subject19</t>
-  </si>
-  <si>
-    <t>subject20</t>
-  </si>
-  <si>
-    <t>subject21</t>
-  </si>
-  <si>
-    <t>subject22</t>
-  </si>
-  <si>
-    <t>subject23</t>
-  </si>
-  <si>
-    <t>subject24</t>
-  </si>
-  <si>
-    <t>subject25</t>
-  </si>
-  <si>
-    <t>subject26</t>
-  </si>
-  <si>
-    <t>subject27</t>
-  </si>
-  <si>
-    <t>subject28</t>
-  </si>
-  <si>
-    <t>subject29</t>
-  </si>
-  <si>
-    <t>subject30</t>
-  </si>
-  <si>
-    <t>subject31</t>
-  </si>
-  <si>
-    <t>subject32</t>
-  </si>
-  <si>
-    <t>subject33</t>
-  </si>
-  <si>
-    <t>subject34</t>
-  </si>
-  <si>
-    <t>subject35</t>
-  </si>
-  <si>
-    <t>subject36</t>
-  </si>
-  <si>
-    <t>subject37</t>
-  </si>
-  <si>
-    <t>subject38</t>
-  </si>
-  <si>
-    <t>subject39</t>
-  </si>
-  <si>
-    <t>subject40</t>
-  </si>
-  <si>
-    <t>subject41</t>
-  </si>
-  <si>
-    <t>subject42</t>
-  </si>
-  <si>
-    <t>subject43</t>
-  </si>
-  <si>
-    <t>subject44</t>
-  </si>
-  <si>
-    <t>subject45</t>
-  </si>
-  <si>
-    <t>subject46</t>
-  </si>
-  <si>
-    <t>subject47</t>
-  </si>
-  <si>
-    <t>subject48</t>
-  </si>
-  <si>
-    <t>subject49</t>
-  </si>
-  <si>
-    <t>subject50</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>sex</t>
   </si>
   <si>
     <t>Female</t>
@@ -549,41 +303,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="D2" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="D3" s="0">
         <v>6</v>
@@ -591,167 +345,167 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="D4" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0">
         <v>74</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="D5" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="D6" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0">
+        <v>57</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="D7" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="D8" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="D9" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="D11" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="D12" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="D13" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="D14" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="D15" s="0">
         <v>5</v>
@@ -759,69 +513,69 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="D16" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="D17" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="D19" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="D20" s="0">
         <v>10</v>
@@ -829,181 +583,181 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="D21" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="D22" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="D23" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="D24" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0">
         <v>58</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="D25" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="D26" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0">
         <v>63</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D27" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="D28" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="D29" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="D30" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="D31" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="D32" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="D33" s="0">
         <v>7</v>
@@ -1011,209 +765,209 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="B34" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="D34" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="D35" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="B36" s="0">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="D36" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="D37" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="B38" s="0">
+        <v>63</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>152</v>
-      </c>
       <c r="D38" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="B39" s="0">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="D39" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="D40" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="D41" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="D42" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="D43" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="B44" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="D44" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="D45" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="B46" s="0">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="D46" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D47" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="D48" s="0">
         <v>5</v>
@@ -1221,44 +975,44 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="B49" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="D49" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="B50" s="0">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="D50" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="B51" s="0">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="D51" s="0">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/covariates/GroupName1_covariates.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/covariates/GroupName1_covariates.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -244,6 +244,21 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
   <si>
     <t>edu</t>
@@ -312,7 +327,7 @@
         <v>52</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
@@ -320,13 +335,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -334,13 +349,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -348,13 +363,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -362,13 +377,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -379,10 +394,10 @@
         <v>72</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -390,13 +405,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -404,13 +419,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -418,13 +433,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -432,13 +447,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -446,13 +461,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -460,13 +475,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D12" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -474,13 +489,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D13" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -488,13 +503,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D14" s="0">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -502,13 +517,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D15" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -516,13 +531,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D16" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -530,13 +545,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -544,13 +559,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -558,13 +573,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D19" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -572,13 +587,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -586,13 +601,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="0">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +618,10 @@
         <v>62</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -614,13 +629,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -628,13 +643,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -642,13 +657,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -656,13 +671,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -670,13 +685,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -684,10 +699,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="0">
         <v>9</v>
@@ -698,10 +713,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="0">
         <v>5</v>
@@ -712,13 +727,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="0">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -726,13 +741,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -740,13 +755,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D32" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -754,13 +769,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="0">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D33" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -768,13 +783,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -782,13 +797,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="0">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D35" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -796,10 +811,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="0">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D36" s="0">
         <v>13</v>
@@ -810,13 +825,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="0">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D37" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -824,13 +839,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="0">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D38" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -838,13 +853,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="0">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D39" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -852,10 +867,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="0">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D40" s="0">
         <v>10</v>
@@ -866,13 +881,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D41" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -880,13 +895,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D42" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -894,13 +909,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D43" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -908,13 +923,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="0">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D44" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -922,13 +937,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D45" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -936,13 +951,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D46" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -950,13 +965,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D47" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -964,10 +979,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D48" s="0">
         <v>5</v>
@@ -978,13 +993,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="0">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D49" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -992,13 +1007,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D50" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -1006,13 +1021,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="0">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D51" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/covariates/GroupName1_covariates.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/covariates/GroupName1_covariates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannivolpe/Documents/GitHub/Braph-2.0-Matlab/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/covariates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paego\Documents\GitHub\Braph-2.0-Matlab\braph2genesis\pipelines\connectivity\example data CON (DTI)\xls\GroupName1\covariates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4D9ACA-5BE1-2645-BC76-2724053E07A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B14CF5-B3D9-4E63-8A4B-13CCD30879A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,12 +42,6 @@
     <t>sex</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>SubjectID1</t>
   </si>
   <si>
@@ -61,6 +55,12 @@
   </si>
   <si>
     <t>SubjectID5</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -432,15 +432,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -451,59 +451,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/covariates/GroupName1_covariates.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/covariates/GroupName1_covariates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannivolpe/Documents/GitHub/Braph-2.0-Matlab/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/covariates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hejyu\Documents\GitHub\BRAPH-2-Matlab\braph2genesis\pipelines\connectivity\example data CON (DTI)\xls\GroupName1\covariates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4D9ACA-5BE1-2645-BC76-2724053E07A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F058E4D3-85B0-4CDF-B6A6-F6DE2DCFFD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,12 +42,6 @@
     <t>sex</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>SubjectID1</t>
   </si>
   <si>
@@ -61,6 +55,12 @@
   </si>
   <si>
     <t>SubjectID5</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -432,15 +432,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -451,59 +451,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/covariates/GroupName1_covariates.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/covariates/GroupName1_covariates.xlsx
@@ -1,87 +1,269 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paego\Documents\GitHub\Braph-2.0-Matlab\braph2genesis\pipelines\connectivity\example data CON (DTI)\xls\GroupName1\covariates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hejyu\Documents\GitHub\BRAPH-2-Matlab\braph2genesis\pipelines\connectivity\example data CON (DTI)\xls\GroupName1\covariates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B14CF5-B3D9-4E63-8A4B-13CCD30879A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6AC951-140E-43EE-A955-9F9E6F929312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>subject1</t>
+  </si>
+  <si>
+    <t>subject2</t>
+  </si>
+  <si>
+    <t>subject3</t>
+  </si>
+  <si>
+    <t>subject4</t>
+  </si>
+  <si>
+    <t>subject5</t>
+  </si>
+  <si>
+    <t>subject6</t>
+  </si>
+  <si>
+    <t>subject7</t>
+  </si>
+  <si>
+    <t>subject8</t>
+  </si>
+  <si>
+    <t>subject9</t>
+  </si>
+  <si>
+    <t>subject10</t>
+  </si>
+  <si>
+    <t>subject11</t>
+  </si>
+  <si>
+    <t>subject12</t>
+  </si>
+  <si>
+    <t>subject13</t>
+  </si>
+  <si>
+    <t>subject14</t>
+  </si>
+  <si>
+    <t>subject15</t>
+  </si>
+  <si>
+    <t>subject16</t>
+  </si>
+  <si>
+    <t>subject17</t>
+  </si>
+  <si>
+    <t>subject18</t>
+  </si>
+  <si>
+    <t>subject19</t>
+  </si>
+  <si>
+    <t>subject20</t>
+  </si>
+  <si>
+    <t>subject21</t>
+  </si>
+  <si>
+    <t>subject22</t>
+  </si>
+  <si>
+    <t>subject23</t>
+  </si>
+  <si>
+    <t>subject24</t>
+  </si>
+  <si>
+    <t>subject25</t>
+  </si>
+  <si>
+    <t>subject26</t>
+  </si>
+  <si>
+    <t>subject27</t>
+  </si>
+  <si>
+    <t>subject28</t>
+  </si>
+  <si>
+    <t>subject29</t>
+  </si>
+  <si>
+    <t>subject30</t>
+  </si>
+  <si>
+    <t>subject31</t>
+  </si>
+  <si>
+    <t>subject32</t>
+  </si>
+  <si>
+    <t>subject33</t>
+  </si>
+  <si>
+    <t>subject34</t>
+  </si>
+  <si>
+    <t>subject35</t>
+  </si>
+  <si>
+    <t>subject36</t>
+  </si>
+  <si>
+    <t>subject37</t>
+  </si>
+  <si>
+    <t>subject38</t>
+  </si>
+  <si>
+    <t>subject39</t>
+  </si>
+  <si>
+    <t>subject40</t>
+  </si>
+  <si>
+    <t>subject41</t>
+  </si>
+  <si>
+    <t>subject42</t>
+  </si>
+  <si>
+    <t>subject43</t>
+  </si>
+  <si>
+    <t>subject44</t>
+  </si>
+  <si>
+    <t>subject45</t>
+  </si>
+  <si>
+    <t>subject46</t>
+  </si>
+  <si>
+    <t>subject47</t>
+  </si>
+  <si>
+    <t>subject48</t>
+  </si>
+  <si>
+    <t>subject49</t>
+  </si>
+  <si>
+    <t>subject50</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
     <t>sex</t>
   </si>
   <si>
-    <t>SubjectID1</t>
-  </si>
-  <si>
-    <t>SubjectID2</t>
-  </si>
-  <si>
-    <t>SubjectID4</t>
-  </si>
-  <si>
-    <t>SubjectID3</t>
-  </si>
-  <si>
-    <t>SubjectID5</t>
+    <t>Female</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,23 +286,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -429,81 +602,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" customWidth="1"/>
+    <col min="2" max="2" width="4.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="4.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B4">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>79</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>78</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>86</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
